--- a/biology/Botanique/Clairière/Clairière.xlsx
+++ b/biology/Botanique/Clairière/Clairière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clairi%C3%A8re</t>
+          <t>Clairière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une clairière est un lieu ouvert dans une zone boisée (forêt, bois) où la lumière du Soleil arrive jusqu'au sol. Elle est un élément de l'écosystème forestier et peut être une source de produits forestiers autres que le bois.
 Il existe des clairières couvertes.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clairi%C3%A8re</t>
+          <t>Clairière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les clairières ont des origines variées :
 Surfaces intensivement broutées par des mammifères herbivores ou écorçant les arbres, dans ce cas il y a généralement des réseaux de clairières qui peuvent évoluer dans l'espace et dans le temps. Certains animaux (cerfs, chevreuils) peuvent ainsi entretenir les clairières et les faire durer en broutant les arbrisseaux et les ronces qui y poussent ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clairi%C3%A8re</t>
+          <t>Clairière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sauf en présence de sols toxiques (naturellement ou à la suite d'une grave pollution), inondés et/ou humides et très acides, les clairières sont reconquises avec le temps par de nouvelles pousses et ont une durée d'existence limitée, évoluant vers un climax théorique.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clairi%C3%A8re</t>
+          <t>Clairière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +599,14 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La juxtaposition de milieux différents (ici le sous-bois et la clairière) est un facteur (naturel) de biodiversité.
-Certains animaux typiquement forestiers tel le grand Tétras ont à la fois besoin d'une forêt fermée et de clairières (pour la parade sexuelle). Certaines espèces, de papillons par exemple ont acquis avec l'évolution des adaptations leur permettant de vivre dans les clairières ou lisières, avec des différences morphologiques et fonctionnelles (aérodynamisme, musculature, couleurs…) marquées entre les papillons qui se perchent et ceux qui, plus mobiles, patrouillent [3].
+Certains animaux typiquement forestiers tel le grand Tétras ont à la fois besoin d'une forêt fermée et de clairières (pour la parade sexuelle). Certaines espèces, de papillons par exemple ont acquis avec l'évolution des adaptations leur permettant de vivre dans les clairières ou lisières, avec des différences morphologiques et fonctionnelles (aérodynamisme, musculature, couleurs…) marquées entre les papillons qui se perchent et ceux qui, plus mobiles, patrouillent .
 Quand une clairière est créée (naturellement ou non), elle tend à être (re)colonisées en plusieurs stades. Différentes plantes des bois inféodées à ce milieu ou des plantes de lumière (plante à fleurs, graminées) peuvent s'y répandre rapidement (ce sont les « pionnières ») avant d'être remplacées par des plantes plus importantes qui les priveront de lumière telles que les ronces et les fougères. Avec le temps et si la clairère n'est pas entretenue par des herbivores ou les hommes, les arbres finissent par repousser -à partir de graines conservées dans le sol, apportées par des animaux (geais, écureuils, sangliers) ou venant des "semenciers" périphériques- et masquer une grande partie de la lumière : la clairière n'en est plus une.
-Dans de rares cas, zones peu accessible, terrain militaire, réserve naturelle intégrale ancienne, on peut étudier sur le long terme la dynamique naturelle de clairières forestières[4], après chablis, incendie, ou recul de la pression d'herbivores sauvages (ou non).
+Dans de rares cas, zones peu accessible, terrain militaire, réserve naturelle intégrale ancienne, on peut étudier sur le long terme la dynamique naturelle de clairières forestières, après chablis, incendie, ou recul de la pression d'herbivores sauvages (ou non).
 </t>
         </is>
       </c>
